--- a/public/template_data_kategori.xlsx
+++ b/public/template_data_kategori.xlsx
@@ -294,27 +294,27 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
